--- a/хэши (черн, крас, бел)/white_phash.xlsx
+++ b/хэши (черн, крас, бел)/white_phash.xlsx
@@ -451,11 +451,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>13330870401295716352</t>
+          <t>1011100100000000110001000000000000000000000000000001000000000000</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.020627</v>
+        <v>0.03125</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -469,14 +469,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>13330866003249201152</t>
+          <t>1011100100000000110000000000000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.027873</v>
+        <v>0.015628</v>
       </c>
       <c r="D3" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -487,11 +487,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>13330870401295716352</t>
+          <t>1011100100000000110001000000000000000000000000000001000000000000</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.014283</v>
+        <v>0.015623</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -505,11 +505,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>13330870401295716352</t>
+          <t>1011100100000000110001000000000000000000000000000001000000000000</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.04159</v>
+        <v>0.046896</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -523,14 +523,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>13330866003249201152</t>
+          <t>1011100100000000110000000000000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -541,14 +541,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>13330866003249201152</t>
+          <t>1011100100000000110000000000000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -559,14 +559,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>13330866003249201152</t>
+          <t>1011100100000000110000000000000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -577,14 +577,14 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>13330866003249201152</t>
+          <t>1011100100000000110000000000000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -595,14 +595,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>13330866003249201152</t>
+          <t>1011100100000000110000000000000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.006019</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -613,14 +613,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>13330866003249201152</t>
+          <t>1011100100000000110000000000000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.000737</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -631,14 +631,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>13330866003249201152</t>
+          <t>1011100100000000110000000000000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -649,14 +649,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>13330866003249201152</t>
+          <t>1011100100000000110000000000000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -667,14 +667,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>13330866003249201152</t>
+          <t>1011100100000000110000000000000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -685,14 +685,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>13330866003249201152</t>
+          <t>1011100100000000110000000000000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -703,14 +703,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>13330866003249201152</t>
+          <t>1011100100000000110000000000000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.006956</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -721,14 +721,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>13330866003249201152</t>
+          <t>1011100100000000110000000000000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -739,14 +739,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>13330866003249201152</t>
+          <t>1011100100000000110000000000000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -757,14 +757,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>13330866003249201152</t>
+          <t>1011100100000000110000000000000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.015664</v>
       </c>
       <c r="D19" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -775,14 +775,14 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>13330866003249201152</t>
+          <t>1011100100000000110000000000000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -793,14 +793,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>13330866003249201152</t>
+          <t>1011100100000000110000000000000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.00685</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -811,14 +811,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>13330866003249201152</t>
+          <t>1011100100000000110000000000000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -829,14 +829,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>13330866003249201152</t>
+          <t>1011100100000000110000000000000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -847,14 +847,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>13330866003249201152</t>
+          <t>1011100100000000110000000000000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -865,14 +865,14 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>13330866003249201152</t>
+          <t>1011100100000000110000000000000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -883,14 +883,14 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>13330866003249201152</t>
+          <t>1011100100000000110000000000000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.006985</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -901,7 +901,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>13330870401295716352</t>
+          <t>1011100100000000110001000000000000000000000000000001000000000000</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -919,7 +919,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>13330870401295716352</t>
+          <t>1011100100000000110001000000000000000000000000000001000000000000</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -937,7 +937,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>13330870401295716352</t>
+          <t>1011100100000000110001000000000000000000000000000001000000000000</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -955,11 +955,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>13330870401295716352</t>
+          <t>1011100100000000110001000000000000000000000000000001000000000000</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.007365</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -973,11 +973,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>13330870401295716352</t>
+          <t>1011100100000000110001000000000000000000000000000001000000000000</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.002001</v>
+        <v>0.015576</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -991,11 +991,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>13330870401295716352</t>
+          <t>1011100100000000110001000000000000000000000000000001000000000000</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.001282</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>13330870401295716352</t>
+          <t>1011100100000000110001000000000000000000000000000001000000000000</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1027,11 +1027,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>13330870401295716352</t>
+          <t>1011100100000000110001000000000000000000000000000001000000000000</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.003428</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>13330870401295716352</t>
+          <t>1011100100000000110001000000000000000000000000000001000000000000</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>13330870401295716352</t>
+          <t>1011100100000000110001000000000000000000000000000001000000000000</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>13330870401295716352</t>
+          <t>1011100100000000110001000000000000000000000000000001000000000000</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1099,11 +1099,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>13330870401295716352</t>
+          <t>1011100100000000110001000000000000000000000000000001000000000000</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.006973</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>13330870401295716352</t>
+          <t>1011100100000000110001000000000000000000000000000001000000000000</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>13330870401295716352</t>
+          <t>1011100100000000110001000000000000000000000000000001000000000000</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>13330870401295716352</t>
+          <t>1011100100000000110001000000000000000000000000000001000000000000</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1171,11 +1171,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>13330870401295716352</t>
+          <t>1011100100000000110001000000000000000000000000000001000000000000</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.006653</v>
+        <v>0.015685</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>13330870401295716352</t>
+          <t>1011100100000000110001000000000000000000000000000001000000000000</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>13330870401295716352</t>
+          <t>1011100100000000110001000000000000000000000000000001000000000000</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>13330870401295716352</t>
+          <t>1011100100000000110001000000000000000000000000000001000000000000</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1243,11 +1243,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>13330870401295716352</t>
+          <t>1011100100000000110001000000000000000000000000000001000000000000</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.006332</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -1261,14 +1261,14 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>13330870403443200000</t>
+          <t>1011100100000000110001000000000010000000000000000001000000000000</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.000877</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1279,11 +1279,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>13330870401295716352</t>
+          <t>1011100100000000110001000000000000000000000000000001000000000000</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.01383</v>
+        <v>0.015565</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -1297,11 +1297,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>13330870401295716352</t>
+          <t>1011100100000000110001000000000000000000000000000001000000000000</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.020947</v>
+        <v>0.015611</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -1315,11 +1315,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>13330870401295716352</t>
+          <t>1011100100000000110001000000000000000000000000000001000000000000</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.014022</v>
+        <v>0.031313</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -1333,11 +1333,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>13330870401295716352</t>
+          <t>1011100100000000110001000000000000000000000000000001000000000000</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.020605</v>
+        <v>0.015586</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -1351,11 +1351,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>13330870401295716352</t>
+          <t>1011100100000000110001000000000000000000000000000001000000000000</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.013565</v>
+        <v>0.015613</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -1369,11 +1369,11 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>13330870401295716352</t>
+          <t>1011100100000000110001000000000000000000000000000001000000000000</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.021279</v>
+        <v>0.015644</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -1387,11 +1387,11 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>13330870401295716352</t>
+          <t>1011100100000000110001000000000000000000000000000001000000000000</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.01383</v>
+        <v>0.015601</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -1405,11 +1405,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>13330870401295716352</t>
+          <t>1011100100000000110001000000000000000000000000000001000000000000</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.020802</v>
+        <v>0.015675</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -1423,11 +1423,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>13330870401295716352</t>
+          <t>1011100100000000110001000000000000000000000000000001000000000000</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.014956</v>
+        <v>0.015579</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -1441,14 +1441,14 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>13474981191325061120</t>
+          <t>1011101100000000110000000000000000000000000000000001000000000000</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.019625</v>
+        <v>0.015636</v>
       </c>
       <c r="D57" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -1459,14 +1459,14 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>13474981191325057024</t>
+          <t>1011101100000000110000000000000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.013968</v>
+        <v>0.015622</v>
       </c>
       <c r="D58" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
@@ -1477,14 +1477,14 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>13474981191341834240</t>
+          <t>1011101100000000110000000000000000000001000000000000000000000000</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.02144</v>
+        <v>0.030078</v>
       </c>
       <c r="D59" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
@@ -1495,14 +1495,14 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>12898520439038410752</t>
+          <t>1011001100000000110000000000000000000001000000000000000000000000</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.013749</v>
+        <v>0.021465</v>
       </c>
       <c r="D60" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61">
@@ -1513,14 +1513,14 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>12898520439038410752</t>
+          <t>1011001100000000110000000000000000000001000000000000000000000000</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.020508</v>
+        <v>0.017168</v>
       </c>
       <c r="D61" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62">
@@ -1531,14 +1531,14 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>12898520439038410752</t>
+          <t>1011001100000000110000000000000000000001000000000000000000000000</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.012364</v>
+        <v>0.008092</v>
       </c>
       <c r="D62" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63">
@@ -1549,14 +1549,14 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>12898520439038410752</t>
+          <t>1011001100000000110000000000000000000001000000000000000000000000</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.015685</v>
+        <v>0.015661</v>
       </c>
       <c r="D63" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64">
@@ -1567,14 +1567,14 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>12898520439038410752</t>
+          <t>1011001100000000110000000000000000000001000000000000000000000000</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.015627</v>
+        <v>0.015599</v>
       </c>
       <c r="D64" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/хэши (черн, крас, бел)/white_phash.xlsx
+++ b/хэши (черн, крас, бел)/white_phash.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.03125</v>
+        <v>0.016757</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.015628</v>
+        <v>0.030951</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.015623</v>
+        <v>0.000501</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.046896</v>
+        <v>0.037984</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -599,7 +599,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.010388</v>
       </c>
       <c r="D10" t="n">
         <v>2</v>
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>0.001081</v>
       </c>
       <c r="D11" t="n">
         <v>2</v>
@@ -635,7 +635,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.000726</v>
       </c>
       <c r="D12" t="n">
         <v>2</v>
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.004504</v>
       </c>
       <c r="D16" t="n">
         <v>2</v>
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.001329</v>
       </c>
       <c r="D17" t="n">
         <v>2</v>
@@ -743,7 +743,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>0.001072</v>
       </c>
       <c r="D18" t="n">
         <v>2</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.015664</v>
+        <v>0.0009300000000000001</v>
       </c>
       <c r="D19" t="n">
         <v>2</v>
@@ -779,7 +779,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>0.000992</v>
       </c>
       <c r="D20" t="n">
         <v>2</v>
@@ -797,7 +797,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>0.001013</v>
       </c>
       <c r="D21" t="n">
         <v>2</v>
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>0.001347</v>
       </c>
       <c r="D22" t="n">
         <v>2</v>
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>0.001031</v>
       </c>
       <c r="D23" t="n">
         <v>2</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>0.0009970000000000001</v>
       </c>
       <c r="D24" t="n">
         <v>2</v>
@@ -869,7 +869,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>0.0009990000000000001</v>
       </c>
       <c r="D25" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="D26" t="n">
         <v>2</v>
@@ -905,7 +905,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>0.001293</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>0.000478</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -977,7 +977,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.015576</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>0.013909</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.015685</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -1283,7 +1283,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.015565</v>
+        <v>0.014129</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.015611</v>
+        <v>0.015671</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -1319,7 +1319,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.031313</v>
+        <v>0.015681</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.015586</v>
+        <v>0.015636</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.015613</v>
+        <v>0.015617</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.015644</v>
+        <v>0.015613</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.015601</v>
+        <v>0.015632</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -1409,7 +1409,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.015675</v>
+        <v>0.015627</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.015579</v>
+        <v>0.01563</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -1445,7 +1445,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.015636</v>
+        <v>0.015564</v>
       </c>
       <c r="D57" t="n">
         <v>2</v>
@@ -1463,7 +1463,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.015622</v>
+        <v>0.015676</v>
       </c>
       <c r="D58" t="n">
         <v>3</v>
@@ -1481,7 +1481,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.030078</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
         <v>4</v>
@@ -1499,7 +1499,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.021465</v>
+        <v>0.015628</v>
       </c>
       <c r="D60" t="n">
         <v>5</v>
@@ -1517,7 +1517,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.017168</v>
+        <v>0.015625</v>
       </c>
       <c r="D61" t="n">
         <v>5</v>
@@ -1535,7 +1535,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.008092</v>
+        <v>0.015623</v>
       </c>
       <c r="D62" t="n">
         <v>5</v>
@@ -1553,7 +1553,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.015661</v>
+        <v>0.025469</v>
       </c>
       <c r="D63" t="n">
         <v>5</v>
@@ -1571,10 +1571,370 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.015599</v>
+        <v>0.012012</v>
       </c>
       <c r="D64" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>white_fred_1.jpg</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1011100100000000110001000000000000000000000000000001000000000000</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0.015687</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>white_fred_2.jpg</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1011100100000000110001000000000000000000000000000001000000000000</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0.015633</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>white_fred_3.jpg</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1011100100000000110001000000000000000000000000000001000000000000</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0.025223</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>white_fred_4.jpg</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1011100100000000110001000000000000000000000000000001000000000000</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0.013146</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>white_fred_5.jpg</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1011100100000000110001000000000000000000000000000001000000000000</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0.013916</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>white_fred_6.jpg</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1011100100000000110001000000000000000000000000000001000000000000</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0.020742</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>white_fred_7.jpg</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1011100100000000110001000000000000000000000000000001000000000000</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0.014019</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>white_fred_8.jpg</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1011100100000000110001000000000000000000000000000001000000000000</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0.013901</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>white_fred_9.jpg</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1011100100000000110001000000000000000000000000000001000000000000</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0.013836</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>white_fred_10.jpg</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1011100100000000110001000000000000000000000000000001000000000000</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0.021632</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>white_fred_11.jpg</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>1011100100000000110001000000000000000000000000000001000000000000</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>0.013031</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>white_fred_12.jpg</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>1011100100000000110001000000000000000000000000000001000000000000</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>0.015703</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>white_fred_13.jpg</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>1011100100000000110001000000000000000000000000000001000000000000</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>white_fred_14.jpg</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>1011100100000000110001000000000000000000000000000001000000000000</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>0.029823</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>white_fred_15.jpg</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>1011100100000000110001000000000000000000000000000001000000000000</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>0.010093</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>white_fred_16.jpg</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>1011100100000000110001000000000000000000000000000001000000000000</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>0.015694</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>white_fred_17.jpg</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>1011100100000000110001000000000000000000000000000001000000000000</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>0.015623</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>white_fred_18.jpg</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>1011100100000000110001000000000000000000000000000001000000000000</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>white_fred_19.jpg</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>1011100100000000110001000000000000000000000000000001000000000000</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>0.015638</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>white_fred_20.jpg</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>1011100100000000110001000000000000000000000000000001000000000000</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>0.015624</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
